--- a/Report/211120 - Thesis graphs.xlsx
+++ b/Report/211120 - Thesis graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\monobrainDNAme\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47028F0D-F104-403C-A81F-58F0C366B327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62764C3-3377-42E2-9A4D-32A1A815D3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
+    <workbookView xWindow="13800" yWindow="4935" windowWidth="24105" windowHeight="15000" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell sources" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
   <si>
     <t>GEO Accession</t>
   </si>
@@ -195,22 +195,10 @@
     <t>Common Myeloid Progenitor</t>
   </si>
   <si>
-    <t>Hematopoietic stem cell</t>
-  </si>
-  <si>
-    <t>Common lymphoid progenitor</t>
-  </si>
-  <si>
     <t>Granulocyte macrophage progenitor</t>
   </si>
   <si>
-    <t>Hematopoietic stem cell (blood)</t>
-  </si>
-  <si>
     <t>Hematopoietic stem cell (bone marrow)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Multipotent progenitor</t>
   </si>
   <si>
     <t>Progenitor Cells</t>
@@ -346,9 +334,6 @@
     <t>Common monocyte progenitor</t>
   </si>
   <si>
-    <t>Ly6Chi</t>
-  </si>
-  <si>
     <t>Infiltrating Monocytes</t>
   </si>
   <si>
@@ -356,6 +341,80 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>IDAT</t>
+  </si>
+  <si>
+    <t>Normalized, SOFT</t>
+  </si>
+  <si>
+    <t>?Normalized, SOFT</t>
+  </si>
+  <si>
+    <t>Norm, SOFT</t>
+  </si>
+  <si>
+    <t>Normalized, provided, RRBS</t>
+  </si>
+  <si>
+    <t>uWGBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Multipotent progenitor (bone marrow)</t>
+  </si>
+  <si>
+    <t>Hematopoietic stem cell (peri.blood)</t>
+  </si>
+  <si>
+    <t>WGBS</t>
+  </si>
+  <si>
+    <t>IDAT, EPIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized, </t>
+  </si>
+  <si>
+    <t>SOFT</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ColData</t>
+  </si>
+  <si>
+    <r>
+      <t>Macrophage (Ly6C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -363,7 +422,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <vertAlign val="superscript"/>
         <sz val="11"/>
         <color theme="1"/>
@@ -374,18 +432,12 @@
       <t>a</t>
     </r>
   </si>
-  <si>
-    <t>Normalized, data scrape</t>
-  </si>
-  <si>
-    <t>Normalized, provided</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,15 +467,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -445,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -657,11 +700,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -710,7 +768,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -757,7 +814,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,6 +826,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1084,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26085812-4962-4A3C-999B-9B4B5D8067C4}">
-  <dimension ref="B2:AI35"/>
+  <dimension ref="B2:AL34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AH33" sqref="AH33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1098,44 +1163,43 @@
     <col min="19" max="21" width="3.7109375" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" customWidth="1"/>
     <col min="23" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="26" width="6.7109375" customWidth="1"/>
-    <col min="27" max="27" width="3.7109375" customWidth="1"/>
-    <col min="28" max="32" width="6.7109375" style="21" customWidth="1"/>
-    <col min="33" max="34" width="6.7109375" customWidth="1"/>
-    <col min="35" max="35" width="35.7109375" customWidth="1"/>
-    <col min="36" max="45" width="3.7109375" customWidth="1"/>
+    <col min="26" max="28" width="6.7109375" customWidth="1"/>
+    <col min="29" max="31" width="6.7109375" style="20" customWidth="1"/>
+    <col min="32" max="33" width="6.7109375" customWidth="1"/>
+    <col min="34" max="34" width="35.7109375" customWidth="1"/>
+    <col min="35" max="45" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33"/>
-    </row>
-    <row r="3" spans="2:35" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="32"/>
+    </row>
+    <row r="3" spans="2:38" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -1162,44 +1226,44 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="25"/>
-    </row>
-    <row r="4" spans="2:35" s="30" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="39"/>
-      <c r="C4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:35" s="24" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
+      <c r="Y3" s="24"/>
+    </row>
+    <row r="4" spans="2:38" s="29" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="37"/>
+      <c r="C4" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="28"/>
+      <c r="V4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:38" s="23" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="38"/>
       <c r="C5" s="15" t="s">
         <v>30</v>
       </c>
@@ -1234,19 +1298,19 @@
         <v>11</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S5" s="15" t="s">
         <v>35</v>
@@ -1267,41 +1331,50 @@
         <v>10</v>
       </c>
       <c r="Y5" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="AA5" s="15" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="15" t="s">
         <v>47</v>
       </c>
       <c r="AC5" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD5" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AE5" s="15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AF5" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH5" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI5" s="26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI5" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL5" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6">
@@ -1351,16 +1424,30 @@
       <c r="AC6" s="7"/>
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
-      <c r="AF6" s="7"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="35">
-        <f>SUM(C6:AG6)</f>
+      <c r="AF6" s="34"/>
+      <c r="AG6" s="34">
+        <f>SUM(C6:AE6)</f>
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>66</v>
+      <c r="AH6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK6" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL6" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
@@ -1380,10 +1467,10 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -1395,15 +1482,29 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="7"/>
-      <c r="AG7" s="7"/>
-      <c r="AH7" s="35">
-        <f t="shared" ref="AH7:AH28" si="0">SUM(C7:AG7)</f>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="34">
+        <f>SUM(C7:AE7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="AH7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK7" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL7" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B8" s="42" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="8"/>
@@ -1417,7 +1518,9 @@
         <v>3</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -1437,17 +1540,35 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="35">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="AD8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>3</v>
+      </c>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="34">
+        <f>SUM(C8:AE8)</f>
+        <v>15</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK8" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL8" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B9" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="6"/>
@@ -1483,62 +1604,87 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="7"/>
-      <c r="AG9" s="7"/>
-      <c r="AH9" s="35">
-        <f t="shared" si="0"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34">
+        <f>SUM(C9:AE9)</f>
         <v>12</v>
       </c>
-      <c r="AI9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="AH9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK9" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL9" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23">
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22">
         <v>12</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="22">
         <v>12</v>
       </c>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="35">
-        <f t="shared" si="0"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="40"/>
+      <c r="AG10" s="34">
+        <f>SUM(C10:AE10)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
+      <c r="AH10" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL10" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B11" s="42" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="6"/>
@@ -1574,16 +1720,30 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="7"/>
-      <c r="AG11" s="7"/>
-      <c r="AH11" s="35">
-        <f t="shared" si="0"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34">
+        <f>SUM(C11:AE11)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>56</v>
+      <c r="AH11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL11" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B12" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
@@ -1611,28 +1771,40 @@
       <c r="Z12" s="9">
         <v>5</v>
       </c>
-      <c r="AA12" s="9">
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9">
         <v>5</v>
       </c>
-      <c r="AB12" s="9"/>
       <c r="AC12" s="9"/>
       <c r="AD12" s="9">
         <v>5</v>
       </c>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9">
-        <v>5</v>
-      </c>
-      <c r="AG12" s="9">
+      <c r="AE12" s="9">
         <v>10</v>
       </c>
-      <c r="AH12" s="35">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="34">
+        <f>SUM(C12:AE12)</f>
+        <v>25</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK12" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL12" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B13" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="6"/>
@@ -1653,10 +1825,10 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
       <c r="T13" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="U13" s="7">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="V13" s="7"/>
       <c r="W13" s="7"/>
@@ -1668,874 +1840,974 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="35">
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34">
+        <f>SUM(C13:AE13)</f>
+        <v>32</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL13" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="E14" s="7">
+        <v>3</v>
+      </c>
+      <c r="F14" s="7">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7">
+        <v>52</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>24</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>21</v>
+      </c>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7">
+        <v>55</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>10</v>
+      </c>
+      <c r="AF14" s="34">
+        <v>36</v>
+      </c>
+      <c r="AG14" s="34">
+        <f>SUM(C14:AF14)</f>
+        <v>216</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ14" s="41"/>
+      <c r="AK14" s="41"/>
+      <c r="AL14" s="41"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B15" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="8">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9">
+        <v>8</v>
+      </c>
+      <c r="F15" s="9">
+        <v>8</v>
+      </c>
+      <c r="G15" s="9">
+        <v>8</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9">
+        <v>14</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="34">
+        <f>SUM(C15:AE15)</f>
+        <v>62</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK15" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL15" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B16" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7">
+        <v>23</v>
+      </c>
+      <c r="U16" s="7">
+        <v>22</v>
+      </c>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+      <c r="AB16" s="7"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" s="7"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34">
+        <f>SUM(C16:AE16)</f>
+        <v>45</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI16" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ16" s="41"/>
+      <c r="AK16" s="41"/>
+      <c r="AL16" s="41"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22">
+        <v>29</v>
+      </c>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="40"/>
+      <c r="AG17" s="34">
+        <f>SUM(C17:AE17)</f>
+        <v>29</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI17" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ17" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK17" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL17" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7">
+        <v>6</v>
+      </c>
+      <c r="H18" s="7">
+        <v>6</v>
+      </c>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34">
+        <f>SUM(C18:AE18)</f>
+        <v>37</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK18" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL18" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="34">
+        <f>SUM(C19:AE19)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK19" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL19" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B20" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>4</v>
+      </c>
+      <c r="O20" s="7">
+        <v>2</v>
+      </c>
+      <c r="P20" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="7">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="34">
+        <f>SUM(C20:AE20)</f>
+        <v>23</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK20" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL20" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+      <c r="X21" s="22">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>35</v>
+      </c>
+      <c r="Z21" s="22"/>
+      <c r="AA21" s="22"/>
+      <c r="AB21" s="22"/>
+      <c r="AC21" s="22"/>
+      <c r="AD21" s="22"/>
+      <c r="AE21" s="22"/>
+      <c r="AF21" s="40"/>
+      <c r="AG21" s="34">
+        <f>SUM(C21:AE21)</f>
+        <v>70</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI21" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ21" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK21" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL21" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B22" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7">
+        <v>54</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="34">
+        <f>SUM(C22:AE22)</f>
+        <v>54</v>
+      </c>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AK22" s="41"/>
+      <c r="AL22" s="41"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9">
+        <v>37</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="34">
+        <f>SUM(C23:AE23)</f>
+        <v>37</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK23" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL23" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7">
+        <v>76</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7">
+        <v>7</v>
+      </c>
+      <c r="W24" s="7">
+        <v>7</v>
+      </c>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="34">
+        <f>SUM(C24:AE24)</f>
+        <v>90</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI24" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ24" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK24" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL24" s="41"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B25" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22">
+        <v>21</v>
+      </c>
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22"/>
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22"/>
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="40"/>
+      <c r="AG25" s="34">
+        <f>SUM(C25:AE25)</f>
+        <v>21</v>
+      </c>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AK25" s="41"/>
+      <c r="AL25" s="41"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
+        <v>5</v>
+      </c>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="34">
+        <f>SUM(C26:AE26)</f>
+        <v>5</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI26" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ26" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK26" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL26" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B27" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
+        <v>28</v>
+      </c>
+      <c r="F27" s="9">
+        <v>28</v>
+      </c>
+      <c r="G27" s="9">
+        <v>28</v>
+      </c>
+      <c r="H27" s="9">
+        <v>28</v>
+      </c>
+      <c r="I27" s="9">
+        <v>29</v>
+      </c>
+      <c r="J27" s="9">
+        <v>29</v>
+      </c>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="35"/>
+      <c r="AG27" s="34">
+        <f>SUM(C27:AE27)</f>
+        <v>170</v>
+      </c>
+      <c r="AH27" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL27" s="41" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12" t="str">
+        <f>"Total = " &amp; SUM(C28:AE28)</f>
+        <v>Total = 920</v>
+      </c>
+      <c r="C28" s="13">
+        <f>SUM(C6:C27)</f>
+        <v>23</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:AE28" si="0">SUM(D6:D27)</f>
+        <v>23</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="22">
-        <v>1</v>
-      </c>
-      <c r="D14" s="23">
-        <v>1</v>
-      </c>
-      <c r="E14" s="23">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23">
-        <v>1</v>
-      </c>
-      <c r="G14" s="23">
-        <v>1</v>
-      </c>
-      <c r="H14" s="23">
-        <v>1</v>
-      </c>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="35">
+        <v>54</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="6">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7">
-        <v>3</v>
-      </c>
-      <c r="G15" s="7">
-        <v>3</v>
-      </c>
-      <c r="H15" s="7">
-        <v>3</v>
-      </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7">
-        <v>52</v>
-      </c>
-      <c r="AA15" s="7">
-        <v>74</v>
-      </c>
-      <c r="AB15" s="7">
-        <v>54</v>
-      </c>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7">
-        <v>55</v>
-      </c>
-      <c r="AE15" s="7">
-        <v>74</v>
-      </c>
-      <c r="AF15" s="7">
-        <v>21</v>
-      </c>
-      <c r="AG15" s="7">
-        <v>10</v>
-      </c>
-      <c r="AH15" s="35">
+      <c r="L28" s="3">
         <f t="shared" si="0"/>
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8">
-        <v>8</v>
-      </c>
-      <c r="D16" s="9">
-        <v>8</v>
-      </c>
-      <c r="E16" s="9">
-        <v>8</v>
-      </c>
-      <c r="F16" s="9">
-        <v>8</v>
-      </c>
-      <c r="G16" s="9">
-        <v>8</v>
-      </c>
-      <c r="H16" s="9">
-        <v>8</v>
-      </c>
-      <c r="I16" s="9">
-        <v>14</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="35">
+        <v>11</v>
+      </c>
+      <c r="M28" s="3">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B17" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7">
-        <v>23</v>
-      </c>
-      <c r="U17" s="7">
-        <v>22</v>
-      </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
-      <c r="AE17" s="7"/>
-      <c r="AF17" s="7"/>
-      <c r="AG17" s="7"/>
-      <c r="AH17" s="35">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23">
-        <v>20</v>
-      </c>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
-      <c r="AB18" s="23"/>
-      <c r="AC18" s="23"/>
-      <c r="AD18" s="23"/>
-      <c r="AE18" s="23"/>
-      <c r="AF18" s="23"/>
-      <c r="AG18" s="23"/>
-      <c r="AH18" s="35">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6</v>
-      </c>
-      <c r="E19" s="7">
-        <v>6</v>
-      </c>
-      <c r="F19" s="7">
-        <v>7</v>
-      </c>
-      <c r="G19" s="7">
-        <v>6</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6</v>
-      </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
-      <c r="AE19" s="7"/>
-      <c r="AF19" s="7"/>
-      <c r="AG19" s="7"/>
-      <c r="AH19" s="35">
+      <c r="R28" s="3">
+        <f>SUM(R6:R27)</f>
+        <v>76</v>
+      </c>
+      <c r="S28" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="35">
+      <c r="T28" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
-        <v>2</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4</v>
-      </c>
-      <c r="O21" s="7">
-        <v>2</v>
-      </c>
-      <c r="P21" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7">
-        <v>2</v>
-      </c>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7">
-        <v>2</v>
-      </c>
-      <c r="AD21" s="7">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="7"/>
-      <c r="AF21" s="7"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="35">
+        <v>80</v>
+      </c>
+      <c r="U28" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W28" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="AA28" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="AE28" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AI21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23">
-        <v>35</v>
-      </c>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="23"/>
-      <c r="AG22" s="23"/>
-      <c r="AH22" s="35">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7">
-        <v>54</v>
-      </c>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="35">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9">
-        <v>37</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="35">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7">
-        <v>76</v>
-      </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7">
-        <v>7</v>
-      </c>
-      <c r="W25" s="7">
-        <v>7</v>
-      </c>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="35">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23">
-        <v>21</v>
-      </c>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
-      <c r="AB26" s="23"/>
-      <c r="AC26" s="23"/>
-      <c r="AD26" s="23"/>
-      <c r="AE26" s="23"/>
-      <c r="AF26" s="23"/>
-      <c r="AG26" s="23"/>
-      <c r="AH26" s="35">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7">
-        <v>5</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
-      <c r="AE27" s="7"/>
-      <c r="AF27" s="7"/>
-      <c r="AG27" s="7"/>
-      <c r="AH27" s="35">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B28" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9">
-        <v>28</v>
-      </c>
-      <c r="F28" s="9">
-        <v>28</v>
-      </c>
-      <c r="G28" s="9">
-        <v>28</v>
-      </c>
-      <c r="H28" s="9">
-        <v>28</v>
-      </c>
-      <c r="I28" s="9">
-        <v>29</v>
-      </c>
-      <c r="J28" s="9">
-        <v>29</v>
-      </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="35">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="AI28" s="34"/>
-    </row>
-    <row r="29" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="str">
-        <f>"Total = " &amp; SUM(C29:AG29)</f>
-        <v>Total = 1147</v>
-      </c>
-      <c r="C29" s="13">
-        <f>SUM(C6:C28)</f>
-        <v>24</v>
-      </c>
-      <c r="D29" s="3">
-        <f t="shared" ref="D29:AG29" si="1">SUM(D6:D28)</f>
-        <v>24</v>
-      </c>
-      <c r="E29" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="H29" s="3">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="J29" s="3">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="K29" s="3">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L29" s="3">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M29" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R29" s="3">
-        <f>SUM(R6:R28)</f>
-        <v>76</v>
-      </c>
-      <c r="S29" s="3">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="T29" s="3">
-        <f t="shared" si="1"/>
-        <v>86</v>
-      </c>
-      <c r="U29" s="3">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="V29" s="3">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="W29" s="3">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="X29" s="3">
-        <f t="shared" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="AA29" s="3">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="AB29" s="3">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3">
-        <f t="shared" si="1"/>
+      <c r="AF28" s="35"/>
+      <c r="AG28" s="35"/>
+    </row>
+    <row r="29" spans="2:38" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="AE29" s="3">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="AG29" s="3">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="AH29" s="36"/>
-    </row>
-    <row r="30" spans="2:35" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:35" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T35" t="s">
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:AG28">
-    <sortCondition ref="B19:B28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:AE27">
+    <sortCondition ref="B18:B27"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="B3:B5"/>
@@ -2556,30 +2828,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="36" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="16" t="s">
@@ -2604,7 +2876,7 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="2:20" ht="129.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="14" t="s">
         <v>30</v>
       </c>

--- a/Report/211120 - Thesis graphs.xlsx
+++ b/Report/211120 - Thesis graphs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\monobrainDNAme\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62764C3-3377-42E2-9A4D-32A1A815D3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9C4429-1BD6-4451-9BEC-2EE3734BD397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13800" yWindow="4935" windowWidth="24105" windowHeight="15000" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
+    <workbookView xWindow="3555" yWindow="2265" windowWidth="21810" windowHeight="11940" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell sources" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="96">
   <si>
     <t>GEO Accession</t>
   </si>
@@ -225,9 +225,6 @@
     <t>Glioma-initiating cells</t>
   </si>
   <si>
-    <t>Data format</t>
-  </si>
-  <si>
     <t>GSE112618</t>
   </si>
   <si>
@@ -255,38 +252,6 @@
   </si>
   <si>
     <r>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
@@ -312,25 +277,6 @@
     <t>GSE41826</t>
   </si>
   <si>
-    <r>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Common monocyte progenitor</t>
   </si>
   <si>
@@ -346,15 +292,6 @@
     <t>IDAT</t>
   </si>
   <si>
-    <t>Normalized, SOFT</t>
-  </si>
-  <si>
-    <t>?Normalized, SOFT</t>
-  </si>
-  <si>
-    <t>Norm, SOFT</t>
-  </si>
-  <si>
     <t>Normalized, provided, RRBS</t>
   </si>
   <si>
@@ -368,12 +305,6 @@
   </si>
   <si>
     <t>WGBS</t>
-  </si>
-  <si>
-    <t>IDAT, EPIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normalized, </t>
   </si>
   <si>
     <t>SOFT</t>
@@ -432,12 +363,69 @@
       <t>a</t>
     </r>
   </si>
+  <si>
+    <t>GSE104293</t>
+  </si>
+  <si>
+    <t>GSE103659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glioblastoma </t>
+  </si>
+  <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GenomeStudio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minfi:SWAN </t>
+  </si>
+  <si>
+    <t>RRBS</t>
+  </si>
+  <si>
+    <t>GenomeStudio </t>
+  </si>
+  <si>
+    <t>dasen</t>
+  </si>
+  <si>
+    <t>GSE122994</t>
+  </si>
+  <si>
+    <t>Common Lymphoid Progenitor</t>
+  </si>
+  <si>
+    <t>GSE94568</t>
+  </si>
+  <si>
+    <t>WBGS, BigWig</t>
+  </si>
+  <si>
+    <t>Dendritic Cells</t>
+  </si>
+  <si>
+    <t> quantile normalization</t>
+  </si>
+  <si>
+    <t>GSE103211</t>
+  </si>
+  <si>
+    <t>GSE70175</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,6 +455,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF2E2E2E"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -488,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -715,11 +723,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -835,6 +852,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1149,31 +1178,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26085812-4962-4A3C-999B-9B4B5D8067C4}">
-  <dimension ref="B2:AL34"/>
+  <dimension ref="A2:AO40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AH33" sqref="AH33"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC13" sqref="AC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="17" width="3.7109375" customWidth="1"/>
     <col min="18" max="18" width="6.7109375" customWidth="1"/>
     <col min="19" max="21" width="3.7109375" customWidth="1"/>
     <col min="22" max="22" width="6.7109375" customWidth="1"/>
-    <col min="23" max="25" width="3.7109375" customWidth="1"/>
-    <col min="26" max="28" width="6.7109375" customWidth="1"/>
-    <col min="29" max="31" width="6.7109375" style="20" customWidth="1"/>
-    <col min="32" max="33" width="6.7109375" customWidth="1"/>
-    <col min="34" max="34" width="35.7109375" customWidth="1"/>
-    <col min="35" max="45" width="3.7109375" customWidth="1"/>
+    <col min="23" max="26" width="3.7109375" customWidth="1"/>
+    <col min="27" max="29" width="6.7109375" customWidth="1"/>
+    <col min="30" max="33" width="6.7109375" style="20" customWidth="1"/>
+    <col min="34" max="35" width="6.7109375" customWidth="1"/>
+    <col min="36" max="36" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="35.7109375" customWidth="1"/>
+    <col min="38" max="48" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:38" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="1:41" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>17</v>
       </c>
+      <c r="B2" s="31"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -1196,15 +1228,17 @@
       <c r="V2" s="31"/>
       <c r="W2" s="31"/>
       <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
-    </row>
-    <row r="3" spans="2:38" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="32"/>
+    </row>
+    <row r="3" spans="1:41" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16" t="s">
         <v>13</v>
       </c>
+      <c r="C3" s="17"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -1226,13 +1260,15 @@
       <c r="V3" s="17"/>
       <c r="W3" s="17"/>
       <c r="X3" s="17"/>
-      <c r="Y3" s="24"/>
-    </row>
-    <row r="4" spans="2:38" s="29" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="37"/>
-      <c r="C4" s="26" t="s">
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="24"/>
+    </row>
+    <row r="4" spans="1:41" s="29" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="26" t="s">
         <v>49</v>
       </c>
+      <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
@@ -1258,53 +1294,57 @@
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
-      <c r="Z4" s="29" t="s">
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="29" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:38" s="23" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
+    <row r="5" spans="1:41" s="23" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>11</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="15" t="s">
         <v>54</v>
@@ -1328,128 +1368,144 @@
         <v>41</v>
       </c>
       <c r="X5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Z5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="AA5" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AA5" s="15" t="s">
-        <v>76</v>
-      </c>
       <c r="AB5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="AD5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AG5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AF5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG5" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH5" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI5" s="23" t="s">
+      <c r="AH5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ5" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="AJ5" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK5" s="23" t="s">
+      <c r="AK5" s="25" t="s">
         <v>81</v>
       </c>
       <c r="AL5" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM5" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN5" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO5" s="23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="B6" s="22">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="C6" s="22">
         <v>6</v>
       </c>
-      <c r="E6" s="7">
+      <c r="D6" s="22">
         <v>6</v>
       </c>
-      <c r="F6" s="7">
+      <c r="E6" s="22">
         <v>6</v>
       </c>
-      <c r="G6" s="7">
+      <c r="F6" s="22">
         <v>6</v>
       </c>
-      <c r="H6" s="7">
+      <c r="G6" s="22">
         <v>6</v>
       </c>
-      <c r="I6" s="7">
+      <c r="H6" s="22">
         <v>6</v>
       </c>
-      <c r="J6" s="7">
+      <c r="I6" s="22">
         <v>6</v>
       </c>
-      <c r="K6" s="7">
+      <c r="J6" s="22">
         <v>6</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
-      <c r="AE6" s="7"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34">
-        <f>SUM(C6:AE6)</f>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="34">
+        <f>SUM(B6:AG6)</f>
         <v>54</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AJ6" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="AI6" s="41" t="s">
+      <c r="AK6" t="s">
         <v>83</v>
       </c>
-      <c r="AJ6" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK6" s="41" t="s">
-        <v>83</v>
-      </c>
       <c r="AL6" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO6" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
@@ -1466,11 +1522,11 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
-      <c r="T7" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>63</v>
+      <c r="T7" s="48">
+        <v>9</v>
+      </c>
+      <c r="U7" s="48">
+        <v>9</v>
       </c>
       <c r="V7" s="7"/>
       <c r="W7" s="7"/>
@@ -1482,45 +1538,51 @@
       <c r="AC7" s="7"/>
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34">
-        <f>SUM(C7:AE7)</f>
-        <v>0</v>
-      </c>
-      <c r="AH7" t="s">
+      <c r="AF7" s="7"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="34">
+        <f>SUM(B7:AG7)</f>
+        <v>18</v>
+      </c>
+      <c r="AJ7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ7" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK7" s="41" t="s">
-        <v>83</v>
+      <c r="AK7" t="s">
+        <v>82</v>
       </c>
       <c r="AL7" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN7" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO7" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A8" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
         <v>3</v>
       </c>
+      <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9">
+      <c r="G8" s="9">
         <v>3</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9">
+      <c r="H8" s="9"/>
+      <c r="I8" s="9">
         <v>3</v>
       </c>
+      <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
@@ -1540,51 +1602,54 @@
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
       <c r="AC8" s="9"/>
-      <c r="AD8" s="9">
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9">
         <v>3</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AG8" s="9">
         <v>3</v>
       </c>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="34">
-        <f>SUM(C8:AE8)</f>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="34">
+        <f>SUM(B8:AG8)</f>
         <v>15</v>
       </c>
-      <c r="AH8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ8" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK8" s="41" t="s">
-        <v>83</v>
+      <c r="AJ8" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="AL8" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN8" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO8" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7">
+      <c r="F9" s="7">
         <v>6</v>
       </c>
+      <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7">
+      <c r="K9" s="7">
         <v>6</v>
       </c>
+      <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1604,32 +1669,38 @@
       <c r="AC9" s="7"/>
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34">
-        <f>SUM(C9:AE9)</f>
+      <c r="AF9" s="7"/>
+      <c r="AG9" s="7"/>
+      <c r="AH9" s="7"/>
+      <c r="AI9" s="34">
+        <f>SUM(B9:AG9)</f>
         <v>12</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="AI9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ9" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK9" s="41" t="s">
-        <v>83</v>
+      <c r="AK9" t="s">
+        <v>84</v>
       </c>
       <c r="AL9" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM9" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN9" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO9" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A10" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="22"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
@@ -1662,40 +1733,46 @@
       <c r="AC10" s="22"/>
       <c r="AD10" s="22"/>
       <c r="AE10" s="22"/>
-      <c r="AF10" s="40"/>
-      <c r="AG10" s="34">
-        <f>SUM(C10:AE10)</f>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="34">
+        <f>SUM(B10:AG10)</f>
         <v>24</v>
       </c>
-      <c r="AH10" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK10" s="41" t="s">
-        <v>83</v>
+      <c r="AJ10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="33" t="s">
+        <v>86</v>
       </c>
       <c r="AL10" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B11" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN10" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO10" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7">
+        <v>7</v>
+      </c>
       <c r="F11" s="7">
         <v>7</v>
       </c>
-      <c r="G11" s="7">
-        <v>7</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
@@ -1720,94 +1797,103 @@
       <c r="AC11" s="7"/>
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34">
-        <f>SUM(C11:AE11)</f>
+      <c r="AF11" s="7"/>
+      <c r="AG11" s="7"/>
+      <c r="AH11" s="7"/>
+      <c r="AI11" s="34">
+        <f>SUM(B11:AG11)</f>
         <v>14</v>
       </c>
-      <c r="AH11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI11" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ11" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK11" s="41" t="s">
-        <v>83</v>
+      <c r="AJ11" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK11" s="47" t="s">
+        <v>86</v>
       </c>
       <c r="AL11" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM11" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN11" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO11" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22">
         <v>5</v>
       </c>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9">
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22">
         <v>5</v>
       </c>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9">
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22">
         <v>5</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AG12" s="22">
         <v>10</v>
       </c>
-      <c r="AF12" s="35"/>
-      <c r="AG12" s="34">
-        <f>SUM(C12:AE12)</f>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="34">
+        <f>SUM(B12:AG12)</f>
         <v>25</v>
       </c>
-      <c r="AH12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI12" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ12" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK12" s="41" t="s">
-        <v>83</v>
+      <c r="AJ12" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="AL12" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B13" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN12" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO12" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A13" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
@@ -1840,49 +1926,40 @@
       <c r="AC13" s="7"/>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34">
-        <f>SUM(C13:AE13)</f>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="34">
+        <f>SUM(B13:AG13)</f>
         <v>32</v>
       </c>
-      <c r="AH13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI13" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ13" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK13" s="41" t="s">
-        <v>83</v>
+      <c r="AJ13" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="AL13" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B14" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="6">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="E14" s="7">
-        <v>3</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="AM13" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN13" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO13" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A14" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -1900,64 +1977,48 @@
       <c r="W14" s="7"/>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="7">
-        <v>52</v>
-      </c>
-      <c r="AA14" s="7">
-        <v>24</v>
-      </c>
-      <c r="AB14" s="7">
-        <v>21</v>
-      </c>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
       <c r="AC14" s="7"/>
-      <c r="AD14" s="7">
-        <v>55</v>
-      </c>
-      <c r="AE14" s="7">
-        <v>10</v>
-      </c>
-      <c r="AF14" s="34">
-        <v>36</v>
-      </c>
-      <c r="AG14" s="34">
-        <f>SUM(C14:AF14)</f>
-        <v>216</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI14" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34" t="s">
+        <v>85</v>
+      </c>
       <c r="AL14" s="41"/>
-    </row>
-    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B15" s="42" t="s">
+      <c r="AM14" s="41"/>
+      <c r="AN14" s="41"/>
+      <c r="AO14" s="41"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="9">
         <v>3</v>
       </c>
-      <c r="C15" s="8">
-        <v>8</v>
+      <c r="C15" s="9">
+        <v>3</v>
       </c>
       <c r="D15" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E15" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F15" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G15" s="9">
-        <v>8</v>
-      </c>
-      <c r="H15" s="9">
-        <v>8</v>
-      </c>
-      <c r="I15" s="9">
-        <v>14</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -1975,42 +2036,67 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
+      <c r="AA15" s="9">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>24</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>21</v>
+      </c>
       <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="34">
-        <f>SUM(C15:AE15)</f>
-        <v>62</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ15" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK15" s="41" t="s">
-        <v>83</v>
+      <c r="AE15" s="9">
+        <v>54</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>55</v>
+      </c>
+      <c r="AG15" s="9">
+        <v>10</v>
+      </c>
+      <c r="AH15" s="9">
+        <v>36</v>
+      </c>
+      <c r="AI15" s="34">
+        <f>SUM(B15:AH15)</f>
+        <v>270</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>66</v>
       </c>
       <c r="AL15" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B16" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
+        <v>73</v>
+      </c>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="7">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7">
+        <v>8</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8</v>
+      </c>
+      <c r="E16" s="7">
+        <v>8</v>
+      </c>
+      <c r="F16" s="7">
+        <v>8</v>
+      </c>
+      <c r="G16" s="7">
+        <v>8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>14</v>
+      </c>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
@@ -2022,12 +2108,8 @@
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
-      <c r="T16" s="7">
-        <v>23</v>
-      </c>
-      <c r="U16" s="7">
-        <v>22</v>
-      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="X16" s="7"/>
@@ -2038,206 +2120,197 @@
       <c r="AC16" s="7"/>
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34">
-        <f>SUM(C16:AE16)</f>
+      <c r="AF16" s="7"/>
+      <c r="AG16" s="7"/>
+      <c r="AH16" s="7"/>
+      <c r="AI16" s="34">
+        <f>SUM(B16:AG16)</f>
+        <v>62</v>
+      </c>
+      <c r="AJ16" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN16" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO16" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL17" s="41"/>
+      <c r="AM17" s="41"/>
+      <c r="AN17" s="41"/>
+      <c r="AO17" s="41"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22">
+        <v>23</v>
+      </c>
+      <c r="U18" s="22">
+        <v>22</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="34">
+        <f>SUM(B18:AG18)</f>
         <v>45</v>
       </c>
-      <c r="AH16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI16" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="AJ18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL18" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM18" s="41"/>
+      <c r="AN18" s="41"/>
+      <c r="AO18" s="41"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7">
         <v>29</v>
       </c>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="34">
-        <f>SUM(C17:AE17)</f>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="34">
+        <f>SUM(B19:AG19)</f>
         <v>29</v>
       </c>
-      <c r="AH17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK17" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL17" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>6</v>
-      </c>
-      <c r="D18" s="7">
-        <v>6</v>
-      </c>
-      <c r="E18" s="7">
-        <v>6</v>
-      </c>
-      <c r="F18" s="7">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7">
-        <v>6</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
-      <c r="AE18" s="7"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34">
-        <f>SUM(C18:AE18)</f>
-        <v>37</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI18" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ18" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK18" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL18" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="35"/>
-      <c r="AG19" s="34">
-        <f>SUM(C19:AE19)</f>
-        <v>0</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI19" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ19" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK19" s="41" t="s">
-        <v>83</v>
+      <c r="AJ19" s="34" t="s">
+        <v>64</v>
       </c>
       <c r="AL19" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="AM19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN19" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO19" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:41" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2246,19 +2319,13 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4</v>
-      </c>
-      <c r="O20" s="7">
-        <v>2</v>
-      </c>
-      <c r="P20" s="7">
-        <v>10</v>
-      </c>
+      <c r="L20" s="7">
+        <v>3</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
@@ -2268,306 +2335,342 @@
       <c r="W20" s="7"/>
       <c r="X20" s="7"/>
       <c r="Y20" s="7"/>
-      <c r="Z20" s="7">
-        <v>2</v>
-      </c>
+      <c r="Z20" s="7"/>
       <c r="AA20" s="7"/>
       <c r="AB20" s="7"/>
-      <c r="AC20" s="7">
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
+      <c r="AG20" s="7"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="34"/>
+      <c r="AJ20" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK20" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+    </row>
+    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7">
+        <v>181</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="34">
+        <f t="shared" ref="AI21:AI33" si="0">SUM(B21:AG21)</f>
+        <v>181</v>
+      </c>
+      <c r="AJ21" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN21" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO21" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22">
+        <v>132</v>
+      </c>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="22"/>
+      <c r="AF22" s="22"/>
+      <c r="AG22" s="22"/>
+      <c r="AH22" s="40"/>
+      <c r="AI22" s="34">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="AJ22" s="34"/>
+      <c r="AL22" s="41"/>
+      <c r="AM22" s="41"/>
+      <c r="AN22" s="41"/>
+      <c r="AO22" s="41"/>
+    </row>
+    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7">
+        <v>6</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7">
+        <v>6</v>
+      </c>
+      <c r="G23" s="7">
+        <v>6</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="48">
+        <v>12</v>
+      </c>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="34">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL23" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM23" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN23" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO23" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="49">
+        <v>6</v>
+      </c>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="34">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL24" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM24" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN24" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO24" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7">
         <v>2</v>
       </c>
-      <c r="AD20" s="7">
+      <c r="N25" s="7">
+        <v>4</v>
+      </c>
+      <c r="O25" s="7">
+        <v>2</v>
+      </c>
+      <c r="P25" s="7">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7">
         <v>1</v>
       </c>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34">
-        <f>SUM(C20:AE20)</f>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="34">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="AH20" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI20" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ20" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK20" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL20" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B21" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22">
-        <v>35</v>
-      </c>
-      <c r="Y21" s="22">
-        <v>35</v>
-      </c>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="22"/>
-      <c r="AD21" s="22"/>
-      <c r="AE21" s="22"/>
-      <c r="AF21" s="40"/>
-      <c r="AG21" s="34">
-        <f>SUM(C21:AE21)</f>
-        <v>70</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI21" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ21" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK21" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL21" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7">
-        <v>54</v>
-      </c>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
-      <c r="AE22" s="7"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34">
-        <f>SUM(C22:AE22)</f>
-        <v>54</v>
-      </c>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9">
-        <v>37</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="34">
-        <f>SUM(C23:AE23)</f>
-        <v>37</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK23" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL23" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7">
-        <v>76</v>
-      </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7">
-        <v>7</v>
-      </c>
-      <c r="W24" s="7">
-        <v>7</v>
-      </c>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34">
-        <f>SUM(C24:AE24)</f>
-        <v>90</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK24" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL24" s="41"/>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22">
-        <v>21</v>
-      </c>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
-      <c r="AB25" s="22"/>
-      <c r="AC25" s="22"/>
-      <c r="AD25" s="22"/>
-      <c r="AE25" s="22"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="34">
-        <f>SUM(C25:AE25)</f>
-        <v>21</v>
-      </c>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6"/>
+      <c r="AJ25" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL25" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM25" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN25" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO25" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2576,9 +2679,7 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="7">
-        <v>5</v>
-      </c>
+      <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -2590,7 +2691,9 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
+      <c r="X26" s="7">
+        <v>380</v>
+      </c>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
       <c r="AA26" s="7"/>
@@ -2598,219 +2701,584 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34">
-        <f>SUM(C26:AE26)</f>
-        <v>5</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI26" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ26" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK26" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL26" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9">
-        <v>28</v>
-      </c>
-      <c r="F27" s="9">
-        <v>28</v>
-      </c>
-      <c r="G27" s="9">
-        <v>28</v>
-      </c>
-      <c r="H27" s="9">
-        <v>28</v>
-      </c>
-      <c r="I27" s="9">
-        <v>29</v>
-      </c>
-      <c r="J27" s="9">
-        <v>29</v>
-      </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="35"/>
-      <c r="AG27" s="34">
-        <f>SUM(C27:AE27)</f>
-        <v>170</v>
-      </c>
-      <c r="AH27" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI27" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ27" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK27" s="41" t="s">
-        <v>83</v>
+      <c r="AF26" s="7"/>
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="34"/>
+      <c r="AL26" s="41"/>
+      <c r="AM26" s="41"/>
+      <c r="AN26" s="41"/>
+      <c r="AO26" s="41"/>
+    </row>
+    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="22">
+        <v>35</v>
+      </c>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="22"/>
+      <c r="AF27" s="22"/>
+      <c r="AG27" s="22"/>
+      <c r="AH27" s="40"/>
+      <c r="AI27" s="34">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>64</v>
       </c>
       <c r="AL27" s="41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="12" t="str">
-        <f>"Total = " &amp; SUM(C28:AE28)</f>
-        <v>Total = 920</v>
-      </c>
-      <c r="C28" s="13">
-        <f>SUM(C6:C27)</f>
-        <v>23</v>
-      </c>
-      <c r="D28" s="3">
-        <f t="shared" ref="D28:AE28" si="0">SUM(D6:D27)</f>
-        <v>23</v>
-      </c>
-      <c r="E28" s="3">
+        <v>73</v>
+      </c>
+      <c r="AM27" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN27" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO27" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7">
+        <v>54</v>
+      </c>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="34">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="H28" s="3">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="K28" s="3">
-        <f t="shared" si="0"/>
+      <c r="AJ28" s="34"/>
+      <c r="AL28" s="41"/>
+      <c r="AM28" s="41"/>
+      <c r="AN28" s="41"/>
+      <c r="AO28" s="41"/>
+    </row>
+    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R28" s="3">
-        <f>SUM(R6:R27)</f>
-        <v>76</v>
-      </c>
-      <c r="S28" s="3">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9">
+        <v>37</v>
+      </c>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="34">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="T28" s="3">
+      <c r="AJ29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL29" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM29" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN29" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO29" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7">
+        <v>76</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7">
+        <v>7</v>
+      </c>
+      <c r="W30" s="7">
+        <v>7</v>
+      </c>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="U28" s="3">
+        <v>90</v>
+      </c>
+      <c r="AJ30" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL30" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM30" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN30" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO30" s="41"/>
+    </row>
+    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A31" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22">
+        <v>21</v>
+      </c>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
+      <c r="AG31" s="22"/>
+      <c r="AH31" s="40"/>
+      <c r="AI31" s="34">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="V28" s="3">
+        <v>21</v>
+      </c>
+      <c r="AJ31" s="34"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
+      <c r="AO31" s="41"/>
+    </row>
+    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7">
+        <v>5</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="34"/>
+      <c r="AI32" s="34">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL32" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM32" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN32" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO32" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9">
+        <v>28</v>
+      </c>
+      <c r="E33" s="9">
+        <v>28</v>
+      </c>
+      <c r="F33" s="9">
+        <v>28</v>
+      </c>
+      <c r="G33" s="9">
+        <v>28</v>
+      </c>
+      <c r="H33" s="9">
+        <v>29</v>
+      </c>
+      <c r="I33" s="9">
+        <v>29</v>
+      </c>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="34">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="AJ33" s="34"/>
+      <c r="AK33" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL33" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM33" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN33" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO33" s="41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="str">
+        <f>"Total = " &amp; SUM(B34:AG34)</f>
+        <v>Total = 1735</v>
+      </c>
+      <c r="B34" s="13">
+        <f>SUM(B6:B33)</f>
+        <v>23</v>
+      </c>
+      <c r="C34" s="3">
+        <f>SUM(C6:C33)</f>
+        <v>23</v>
+      </c>
+      <c r="D34" s="3">
+        <f>SUM(D6:D33)</f>
+        <v>54</v>
+      </c>
+      <c r="E34" s="3">
+        <f>SUM(E6:E33)</f>
+        <v>59</v>
+      </c>
+      <c r="F34" s="3">
+        <f>SUM(F6:F33)</f>
+        <v>64</v>
+      </c>
+      <c r="G34" s="3">
+        <f>SUM(G6:G33)</f>
+        <v>54</v>
+      </c>
+      <c r="H34" s="3">
+        <f>SUM(H6:H33)</f>
+        <v>49</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" ref="I34:AH34" si="1">SUM(I6:I33)</f>
+        <v>38</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K34" s="3">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M34" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P34" s="3">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Q34" s="3">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="R34" s="3">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="S34" s="3">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="T34" s="3">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="U34" s="3">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="W28" s="3">
-        <f t="shared" si="0"/>
+      <c r="W34" s="3">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="X28" s="3">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3">
-        <f t="shared" si="0"/>
+      <c r="X34" s="3">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+      <c r="Y34" s="3">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="Z34" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="AA34" s="3">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="AA28" s="3">
-        <f t="shared" si="0"/>
+      <c r="AB34" s="3">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3">
-        <f t="shared" si="0"/>
+      <c r="AC34" s="3">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="AD34" s="3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3">
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="AE28" s="3">
-        <f t="shared" si="0"/>
+      <c r="AG34" s="3">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AF28" s="35"/>
-      <c r="AG28" s="35"/>
-    </row>
-    <row r="29" spans="2:38" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="AH34" s="3">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="AI34" s="35"/>
+      <c r="AJ34" s="35"/>
+    </row>
+    <row r="35" spans="1:41" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:41" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:38" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T34" t="s">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:AE27">
-    <sortCondition ref="B18:B27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AG33">
+    <sortCondition ref="A23:A33"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Report/211120 - Thesis graphs.xlsx
+++ b/Report/211120 - Thesis graphs.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\monobrainDNAme\Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CD3561-398A-445A-9059-E18515A5ABAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5537E6-6DC2-48C3-BEBB-8781EA11E18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="600" windowWidth="21810" windowHeight="15000" xr2:uid="{7C941C9E-81A3-438E-9787-713C5A1CC14D}"/>
+    <workbookView xWindow="28680" yWindow="255" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{4A26E270-9FB3-4371-913B-0B0975D6D39F}"/>
   </bookViews>
   <sheets>
     <sheet name="Cell sources" sheetId="1" r:id="rId1"/>
     <sheet name="Signatures" sheetId="3" r:id="rId2"/>
+    <sheet name="Datasets" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="261">
   <si>
     <t>GEO Accession</t>
   </si>
@@ -448,9 +452,6 @@
     <t>Features</t>
   </si>
   <si>
-    <t>Supplementary Table S2. Data source, and total cells included for generating signatures matricies and feature sets</t>
-  </si>
-  <si>
     <t>Lineage Reconstruction</t>
   </si>
   <si>
@@ -458,13 +459,630 @@
   </si>
   <si>
     <t xml:space="preserve">GSE103659, GSE104293 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSG00000181631 (P2RY13)
+ENSG00000169313 (P2RY12)
+ENSG00000171659 (GPR34)
+ENSG00000142583 (SLC2A5)
+ENSG00000116774 (OLFML3) 
+ENSG00000183160 (TMEM119) </t>
+  </si>
+  <si>
+    <t>ENSG00000126218 (F10) 
+ENSG00000132205 (EMILIN2)
+ENSG00000198734 (F5)
+ENSG00000125730 (C3)
+ENSG00000119125 (GDA)
+ENSG00000188404 (SELL)
+ENSG00000257017 (HP)</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>Peripheral macrophages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ENSG00000169896 (CD11B)
+ENSG00000081237 (CD45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary Table S1. Data source and </t>
+  </si>
+  <si>
+    <t>Supplementary Table S2. Data source and list of included cells for generating methylation signatures matricies and feature sets</t>
+  </si>
+  <si>
+    <t>Supplementary Table S3.</t>
+  </si>
+  <si>
+    <t>Ensembl ID</t>
+  </si>
+  <si>
+    <t>Gene name</t>
+  </si>
+  <si>
+    <t>ENSG00000169313</t>
+  </si>
+  <si>
+    <t>ENSG00000142583</t>
+  </si>
+  <si>
+    <t>ENSG00000183160</t>
+  </si>
+  <si>
+    <t>TMEM119</t>
+  </si>
+  <si>
+    <t>SLC2A5</t>
+  </si>
+  <si>
+    <t>P2RY12</t>
+  </si>
+  <si>
+    <t>ENSG00000132205</t>
+  </si>
+  <si>
+    <t>ENSG00000119125</t>
+  </si>
+  <si>
+    <t>ENSG00000188404</t>
+  </si>
+  <si>
+    <t>ENSG00000257017</t>
+  </si>
+  <si>
+    <t>EMILIN2</t>
+  </si>
+  <si>
+    <t>GDA</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>X	"Labels"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_A10_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_B1_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_B5_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_B7_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_A2_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_C4_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_A3_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_C10_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_D11_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_E1_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_E2_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_E5_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_E6_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_A6_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_E12_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_F4_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_F7_	"MG"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_A8_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_G11_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>MGH105C_P8_H11_	"M&lt;U+03D5&gt;"</t>
+  </si>
+  <si>
+    <t>GSE104435</t>
+  </si>
+  <si>
+    <t>Neuron (16), glia (16)</t>
+  </si>
+  <si>
+    <t>Normalization Method</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>Quantile</t>
+  </si>
+  <si>
+    <t>minfi::SWAN</t>
+  </si>
+  <si>
+    <t>Microglia (1)</t>
+  </si>
+  <si>
+    <t>Data Source</t>
+  </si>
+  <si>
+    <t>Glioma (54)</t>
+  </si>
+  <si>
+    <t>RnBeads</t>
+  </si>
+  <si>
+    <t>Mixed immune cells (76)</t>
+  </si>
+  <si>
+    <t>B cells (6), CD4+ T cells (6), CD8+ T cells (6), monocyte (6), whole blood (6), granulocyte (18)</t>
+  </si>
+  <si>
+    <t>CD8+ T cells (6). Treg cells (6)</t>
+  </si>
+  <si>
+    <t>Dendritic cells (3)</t>
+  </si>
+  <si>
+    <t>Mixed immune cells (6); included B cells, CD4+ T cells, CD8+ T cells, monocytes, granulocytes</t>
+  </si>
+  <si>
+    <t>B cells (6), CD4+ T cells (7), CD8+ T cells (6), monocytes (6), granulocytes (6)</t>
+  </si>
+  <si>
+    <t>B cells (8), CD4+ T cells (8), CD8+ T cells (8), monocytes (8), whole blood (14), granulocytes (8)</t>
+  </si>
+  <si>
+    <t>B cells (3), CD4+ T cells (3), CD8+ T cells (3), monocytes (3), granulocytes (3)</t>
+  </si>
+  <si>
+    <t>Monocytes (3), dendritic cells (3)</t>
+  </si>
+  <si>
+    <t>GSE56879</t>
+  </si>
+  <si>
+    <t>Max-min</t>
+  </si>
+  <si>
+    <t>Mouse E14 embryonic stem cells (32)</t>
+  </si>
+  <si>
+    <t>Microglia (2), macrophage (4), infiltrating microglia (2), infiltrating monocytes (10), CMP (2), CMP (2), GMP (1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>For input types, IDAT is raw Illumina array IDAT file, SOFT is data scraped from GEO SOFT files or series matrix files, BED is bedgraph-compatible file types</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data obtained directly from authors</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Archetypal cell shown was used in place of samples identified by protein for B cellss (CD19+), monocytes (CD14+), natural killer (NK; CD56+), granulocytes (CD15+), Treg cells (CD25+), and endothelial cells (CD31+)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GSE151506</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Singh et al.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Data Format</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cells types</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Number of Samples)</t>
+    </r>
+  </si>
+  <si>
+    <t>minfi::ppNoob</t>
+  </si>
+  <si>
+    <t>Abbreviations: hematopoietic stem cells (HSC; from bone and blood), multipotent progenitors (MPP; from bone and blood), common lymphoid progenitors (CMP), granulocyte-monocyte progenitors (GMP), common myeloid progenitors (CMP), common monocyte progenitors (cMOP), minfi::preprocessNood (minfi::ppNoob)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Supplementary Table S1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Data source,  data format, and normalization method of all datasets used</t>
+    </r>
+  </si>
+  <si>
+    <t>FCRLS</t>
+  </si>
+  <si>
+    <t>TREM2</t>
+  </si>
+  <si>
+    <t>ITGA4</t>
+  </si>
+  <si>
+    <t>ENSG00000095970</t>
+  </si>
+  <si>
+    <t>ENSG00000115232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplementary Table S3. Gene IDs for signatures genes of glioma and tumor-associate macrophages </t>
+  </si>
+  <si>
+    <t>ENSG00000132704</t>
+  </si>
+  <si>
+    <t>450k</t>
+  </si>
+  <si>
+    <t>Illumina HumanMethylation450 BeadChip</t>
+  </si>
+  <si>
+    <t>5mC</t>
+  </si>
+  <si>
+    <t>5-methylcytosine</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>blood-brain barrier</t>
+  </si>
+  <si>
+    <t>BED, BedGraph</t>
+  </si>
+  <si>
+    <t>Browser extensible data format</t>
+  </si>
+  <si>
+    <t>CpG, CG</t>
+  </si>
+  <si>
+    <t>cytosine - phosphate - guanine</t>
+  </si>
+  <si>
+    <t>CGI</t>
+  </si>
+  <si>
+    <t>CpG Island</t>
+  </si>
+  <si>
+    <t>CTCF</t>
+  </si>
+  <si>
+    <t>CCCTC-binding factor</t>
+  </si>
+  <si>
+    <t>DNAme</t>
+  </si>
+  <si>
+    <t>DNA methylation</t>
+  </si>
+  <si>
+    <t>DNMT</t>
+  </si>
+  <si>
+    <t>DNA methyltransferase protein</t>
+  </si>
+  <si>
+    <t>EPIC</t>
+  </si>
+  <si>
+    <t>Illumina HumanMethylationEPIC BeadChip</t>
+  </si>
+  <si>
+    <t>GBM</t>
+  </si>
+  <si>
+    <t>glioblastoma</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>gene expression omnibus</t>
+  </si>
+  <si>
+    <t>HDF, HDF5</t>
+  </si>
+  <si>
+    <t>hierarchical data format</t>
+  </si>
+  <si>
+    <t>iPCA</t>
+  </si>
+  <si>
+    <t>iterative principal component analysis</t>
+  </si>
+  <si>
+    <t>IDH</t>
+  </si>
+  <si>
+    <t>isocitrate dehydrogenase</t>
+  </si>
+  <si>
+    <t>KEGG</t>
+  </si>
+  <si>
+    <t>Kyoto Encyclopedia of Genes and Genomes</t>
+  </si>
+  <si>
+    <t>kNN</t>
+  </si>
+  <si>
+    <t>k-nearest neighbour</t>
+  </si>
+  <si>
+    <t>mCpG</t>
+  </si>
+  <si>
+    <t>methylated CpG</t>
+  </si>
+  <si>
+    <t>MDMi</t>
+  </si>
+  <si>
+    <t>monocyte-derived microglia-like</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>natural killer</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>principal component analysis</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R programming language</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>random forest</t>
+  </si>
+  <si>
+    <t>reduced representation bisulfite sequencing</t>
+  </si>
+  <si>
+    <t>scBS-seq</t>
+  </si>
+  <si>
+    <t>single cell bisulfite sequencing</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>single nucleotide polymorphism</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
+    <t>tumor-associated macrophage</t>
+  </si>
+  <si>
+    <t>TCGA</t>
+  </si>
+  <si>
+    <t>The Cancer Genome Atlas program</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>ten-eleven translocation protein</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>transcription factor</t>
+  </si>
+  <si>
+    <t>TSG</t>
+  </si>
+  <si>
+    <t>tumor-suppressing genes</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>transcription start site</t>
+  </si>
+  <si>
+    <t>tSNE</t>
+  </si>
+  <si>
+    <t>t-distributed stochastic neighbor embedding</t>
+  </si>
+  <si>
+    <t>UMAP</t>
+  </si>
+  <si>
+    <t>uniform manifold approximation and projection</t>
+  </si>
+  <si>
+    <t>whole genome bisulfite sequencing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +1139,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,8 +1203,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -726,11 +1394,157 @@
         <color theme="0" tint="-0.24994659260841701"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -803,15 +1617,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
@@ -865,8 +1670,135 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1179,11 +2111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26085812-4962-4A3C-999B-9B4B5D8067C4}">
-  <dimension ref="A2:AP47"/>
+  <dimension ref="A2:AP48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O11" sqref="O11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +2165,7 @@
       <c r="AA2" s="19"/>
     </row>
     <row r="3" spans="1:42" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="59" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1267,7 +2198,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="1:42" s="16" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="13" t="s">
         <v>43</v>
       </c>
@@ -1307,8 +2238,8 @@
       </c>
     </row>
     <row r="5" spans="1:42" s="10" customFormat="1" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="30" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1332,7 +2263,7 @@
       <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="30" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -1433,7 +2364,7 @@
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="33" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
@@ -1645,7 +2576,7 @@
       </c>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="33" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="9"/>
@@ -1732,10 +2663,10 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="38">
+      <c r="U10" s="35">
         <v>12</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="35">
         <v>12</v>
       </c>
       <c r="W10" s="2"/>
@@ -1906,7 +2837,7 @@
       </c>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="3"/>
@@ -1969,42 +2900,42 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="T14" s="51"/>
-      <c r="U14" s="51"/>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-      <c r="AE14" s="51"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="51"/>
-      <c r="AH14" s="51"/>
-      <c r="AI14" s="51"/>
+        <v>106</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="48"/>
+      <c r="X14" s="48"/>
+      <c r="Y14" s="48"/>
+      <c r="Z14" s="48"/>
+      <c r="AA14" s="48"/>
+      <c r="AB14" s="48"/>
+      <c r="AC14" s="48"/>
+      <c r="AD14" s="48"/>
+      <c r="AE14" s="48"/>
+      <c r="AF14" s="48"/>
+      <c r="AG14" s="48"/>
+      <c r="AH14" s="48"/>
+      <c r="AI14" s="48"/>
       <c r="AJ14" s="21"/>
       <c r="AK14" s="21"/>
       <c r="AM14" s="23"/>
@@ -2205,7 +3136,7 @@
       <c r="AP18" s="23"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B19" s="2"/>
@@ -2336,7 +3267,7 @@
       <c r="AP20" s="23"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="33" t="s">
         <v>3</v>
       </c>
       <c r="B21" s="2">
@@ -2575,7 +3506,7 @@
       </c>
     </row>
     <row r="25" spans="1:42" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="34" t="s">
         <v>87</v>
       </c>
       <c r="B25" s="2"/>
@@ -2653,7 +3584,7 @@
       <c r="V26" s="9"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
-      <c r="Y26" s="39">
+      <c r="Y26" s="36">
         <v>181</v>
       </c>
       <c r="Z26" s="9"/>
@@ -2667,7 +3598,7 @@
       <c r="AH26" s="9"/>
       <c r="AI26" s="9"/>
       <c r="AJ26" s="21">
-        <f t="shared" ref="AJ26:AJ40" si="1">SUM(B26:AH26)</f>
+        <f t="shared" ref="AJ26:AJ41" si="1">SUM(B26:AH26)</f>
         <v>181</v>
       </c>
       <c r="AK26" s="21" t="s">
@@ -2714,7 +3645,7 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-      <c r="Z27" s="38">
+      <c r="Z27" s="35">
         <v>132</v>
       </c>
       <c r="AA27" s="2"/>
@@ -2747,349 +3678,347 @@
       </c>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="63" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="64">
         <v>1</v>
       </c>
-      <c r="B28" s="9">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="23"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="9">
         <v>6</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C29" s="9">
         <v>6</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>6</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E29" s="9">
         <v>7</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F29" s="9">
         <v>6</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G29" s="9">
         <v>6</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9">
+      <c r="H29" s="9"/>
+      <c r="I29" s="9">
         <v>6</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="49">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="46">
         <v>12</v>
       </c>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="21">
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="21">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="AK28" t="s">
+      <c r="AK29" t="s">
         <v>58</v>
       </c>
-      <c r="AM28" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN28" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO28" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP28" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="AM29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP29" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="38">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="35">
         <v>6</v>
       </c>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-      <c r="AB29" s="2"/>
-      <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="2"/>
-      <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="21">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="21">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="AK29" t="s">
+      <c r="AK30" t="s">
         <v>58</v>
       </c>
-      <c r="AM29" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN29" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO29" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP29" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9">
-        <v>15</v>
-      </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" t="s">
-        <v>63</v>
-      </c>
-      <c r="AM30" s="23"/>
-      <c r="AN30" s="23"/>
-      <c r="AO30" s="23"/>
-      <c r="AP30" s="23"/>
+      <c r="AM30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP30" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9">
+        <v>15</v>
+      </c>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="21"/>
+      <c r="AK31" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM31" s="23"/>
+      <c r="AN31" s="23"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="23"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2">
         <v>2</v>
       </c>
-      <c r="N31" s="2">
+      <c r="N32" s="2">
         <v>4</v>
       </c>
-      <c r="O31" s="2">
+      <c r="O32" s="2">
         <v>2</v>
       </c>
-      <c r="P31" s="2">
+      <c r="P32" s="2">
         <v>10</v>
       </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2">
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2">
         <v>2</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2">
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2">
         <v>2</v>
       </c>
-      <c r="AF31" s="2"/>
-      <c r="AG31" s="2">
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2">
         <v>1</v>
       </c>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="21">
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="21">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="AK31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM31" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN31" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO31" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP31" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3">
-        <v>380</v>
-      </c>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="21"/>
       <c r="AK32" t="s">
         <v>58</v>
       </c>
-      <c r="AM32" s="23"/>
-      <c r="AN32" s="23"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="23"/>
+      <c r="AM32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP32" s="23" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2">
-        <v>24</v>
-      </c>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
-      <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3">
+        <v>380</v>
+      </c>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
       <c r="AJ33" s="21"/>
       <c r="AK33" t="s">
         <v>58</v>
@@ -3100,663 +4029,1648 @@
       <c r="AP33" s="23"/>
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2">
+        <v>24</v>
+      </c>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="21"/>
+      <c r="AK34" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM34" s="23"/>
+      <c r="AN34" s="23"/>
+      <c r="AO34" s="23"/>
+      <c r="AP34" s="23"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9">
         <v>35</v>
       </c>
-      <c r="AA34" s="9">
+      <c r="AA35" s="9">
         <v>35</v>
       </c>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="21">
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="AK34" t="s">
+      <c r="AK35" t="s">
         <v>58</v>
       </c>
-      <c r="AM34" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN34" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO34" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP34" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A35" s="25" t="s">
+      <c r="AM35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP35" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2">
         <v>54</v>
       </c>
-      <c r="AA35" s="2"/>
-      <c r="AB35" s="2"/>
-      <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="2"/>
-      <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="21">
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="21">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="AK35" s="21" t="s">
+      <c r="AK36" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="AM35" s="23"/>
-      <c r="AN35" s="23"/>
-      <c r="AO35" s="23"/>
-      <c r="AP35" s="23"/>
-    </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="AM36" s="23"/>
+      <c r="AN36" s="23"/>
+      <c r="AO36" s="23"/>
+      <c r="AP36" s="23"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A37" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3">
         <v>37</v>
       </c>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="21">
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="21">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="AK36" t="s">
+      <c r="AK37" t="s">
         <v>58</v>
       </c>
-      <c r="AM36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO36" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP36" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:42" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="AM37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP37" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2">
         <v>76</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2">
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2">
         <v>7</v>
       </c>
-      <c r="X37" s="2">
+      <c r="X38" s="2">
         <v>7</v>
       </c>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-      <c r="AB37" s="2"/>
-      <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="2"/>
-      <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="21">
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="21">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="AK37" s="21" t="s">
+      <c r="AK38" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="AL37" t="s">
+      <c r="AL38" t="s">
         <v>59</v>
       </c>
-      <c r="AM37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO37" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP37" s="23"/>
-    </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
+      <c r="AM38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO38" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP38" s="23"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A39" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9">
         <v>21</v>
       </c>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="21">
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="21">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AK38" s="21"/>
-      <c r="AM38" s="23"/>
-      <c r="AN38" s="23"/>
-      <c r="AO38" s="23"/>
-      <c r="AP38" s="23"/>
-    </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A39" s="36" t="s">
+      <c r="AK39" s="21"/>
+      <c r="AM39" s="23"/>
+      <c r="AN39" s="23"/>
+      <c r="AO39" s="23"/>
+      <c r="AP39" s="23"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
         <v>5</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="21">
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="21">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="AK39" t="s">
+      <c r="AK40" t="s">
         <v>58</v>
       </c>
-      <c r="AM39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO39" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP39" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="AM40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO40" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP40" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A41" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9">
         <v>28</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E41" s="9">
         <v>28</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F41" s="9">
         <v>28</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G41" s="9">
         <v>28</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H41" s="9">
         <v>29</v>
       </c>
-      <c r="I40" s="9">
+      <c r="I41" s="9">
         <v>29</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="21">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="3"/>
+      <c r="AI41" s="3"/>
+      <c r="AJ41" s="21">
         <f t="shared" si="1"/>
         <v>170</v>
       </c>
-      <c r="AK40" s="21" t="s">
+      <c r="AK41" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="AL40" s="20" t="s">
+      <c r="AL41" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="AM40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AN40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AO40" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP40" s="23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="str">
-        <f>"Total = " &amp; SUM(B41:AH41)</f>
-        <v>Total = 1833</v>
-      </c>
-      <c r="B41" s="34">
-        <f t="shared" ref="B41:H41" si="2">SUM(B6:B40)</f>
+      <c r="AM41" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN41" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO41" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AP41" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="str">
+        <f>"Total = " &amp; SUM(B42:AH42)</f>
+        <v>Total = 1834</v>
+      </c>
+      <c r="B42" s="31">
+        <f t="shared" ref="B42:H42" si="2">SUM(B6:B41)</f>
         <v>23</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E42" s="1">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F42" s="1">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="G41" s="1">
+      <c r="G42" s="1">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H42" s="1">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="I41" s="1">
-        <f>SUM(I6:I40)</f>
-        <v>67</v>
-      </c>
-      <c r="J41" s="35">
-        <f>SUM(J6:J40)</f>
+      <c r="I42" s="1">
+        <f t="shared" ref="I42:S42" si="3">SUM(I6:I41)</f>
+        <v>67</v>
+      </c>
+      <c r="J42" s="32">
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K41" s="1">
-        <f>SUM(K6:K40)</f>
+      <c r="K42" s="1">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="L41" s="1">
-        <f>SUM(L6:L40)</f>
+      <c r="L42" s="1">
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M41" s="1">
-        <f>SUM(M6:M40)</f>
-        <v>6</v>
-      </c>
-      <c r="N41" s="1">
-        <f>SUM(N6:N40)</f>
+      <c r="M42" s="1">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="O41" s="1">
-        <f>SUM(O6:O40)</f>
+      <c r="O42" s="1">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="P41" s="1">
-        <f>SUM(P6:P40)</f>
+      <c r="P42" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="Q41" s="1">
-        <f>SUM(Q6:Q40)</f>
+      <c r="Q42" s="1">
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="R41" s="1">
-        <f>SUM(R6:R40)</f>
+      <c r="R42" s="1">
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="S41" s="1">
-        <f>SUM(S6:S40)</f>
+      <c r="S42" s="1">
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1">
-        <f>SUM(U6:U40)</f>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1">
+        <f t="shared" ref="U42:AE42" si="4">SUM(U6:U41)</f>
         <v>89</v>
       </c>
-      <c r="V41" s="1">
-        <f>SUM(V6:V40)</f>
+      <c r="V42" s="1">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="W41" s="1">
-        <f>SUM(W6:W40)</f>
+      <c r="W42" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="X41" s="1">
-        <f>SUM(X6:X40)</f>
+      <c r="X42" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="Y41" s="1">
-        <f>SUM(Y6:Y40)</f>
+      <c r="Y42" s="1">
+        <f t="shared" si="4"/>
         <v>561</v>
       </c>
-      <c r="Z41" s="1">
-        <f>SUM(Z6:Z40)</f>
+      <c r="Z42" s="1">
+        <f t="shared" si="4"/>
         <v>242</v>
       </c>
-      <c r="AA41" s="1">
-        <f>SUM(AA6:AA40)</f>
+      <c r="AA42" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="AB41" s="1">
-        <f>SUM(AB6:AB40)</f>
+      <c r="AB42" s="1">
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="AC41" s="1">
-        <f>SUM(AC6:AC40)</f>
+      <c r="AC42" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="AD41" s="1">
-        <f>SUM(AD6:AD40)</f>
+      <c r="AD42" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="AE41" s="1">
-        <f>SUM(AE6:AE40)</f>
+      <c r="AE42" s="1">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AF41" s="1"/>
-      <c r="AG41" s="1">
-        <f>SUM(AG6:AG40)</f>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1">
+        <f>SUM(AG6:AG41)</f>
         <v>64</v>
       </c>
-      <c r="AH41" s="1">
-        <f>SUM(AH6:AH40)</f>
+      <c r="AH42" s="1">
+        <f>SUM(AH6:AH41)</f>
         <v>23</v>
       </c>
-      <c r="AI41" s="1">
-        <f>SUM(AI6:AI40)</f>
+      <c r="AI42" s="1">
+        <f>SUM(AI6:AI41)</f>
         <v>36</v>
       </c>
-      <c r="AJ41" s="22"/>
-      <c r="AK41" s="22"/>
-    </row>
-    <row r="42" spans="1:42" ht="18" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="AJ42" s="22"/>
+      <c r="AK42" s="22"/>
+    </row>
+    <row r="43" spans="1:42" ht="18" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:42" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="U47" t="s">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AH40">
-    <sortCondition ref="A28:A40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AH41">
+    <sortCondition ref="A29:A41"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A3:A5"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A28" r:id="rId1" display="https://www.ncbi.nlm.nih.gov/geo/query/acc.cgi?acc=GSE104435" xr:uid="{A816DB71-1662-4683-8A8E-BFB34A6DC6AA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41011FF-451E-48EF-9ADE-76AC14FBDE65}">
+  <dimension ref="B1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="2" max="2" width="24.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="76.85546875" style="38" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="37"/>
+    </row>
+    <row r="7" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="37"/>
+    </row>
+    <row r="8" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="37"/>
+      <c r="C8" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="37"/>
+    </row>
+    <row r="9" spans="2:5" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="37"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="37"/>
+    </row>
+    <row r="11" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4519C562-3743-4947-A542-C30F66A135F6}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="65" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="65" customWidth="1"/>
+    <col min="4" max="4" width="52.42578125" style="65" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+    </row>
+    <row r="2" spans="1:4" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="80" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="27.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
+        <v>177</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41011FF-451E-48EF-9ADE-76AC14FBDE65}">
-  <dimension ref="B2:E8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D45F0E6-319A-4C3A-B65C-C4913D275964}">
+  <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
-    <col min="2" max="2" width="24.140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="41" customWidth="1"/>
-    <col min="4" max="4" width="76.85546875" style="41" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="41"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="40"/>
-    </row>
-    <row r="5" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="40"/>
-    </row>
-    <row r="6" spans="2:5" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="47"/>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="72" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="88"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="89" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="58"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="93"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="E10" s="94" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="52"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="52"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="26"/>
+    </row>
+    <row r="20" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="3:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD690F4-434E-4D54-8987-E666D3333C24}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="98" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="98" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10" s="98" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="97" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="97" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B16" s="98" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" s="98" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="B18" s="98" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" s="98" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" s="98" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="B22" s="98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="98" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="98" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="97" t="s">
+        <v>246</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="97" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="97" t="s">
+        <v>250</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="B32" s="98" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="97" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DFD37F-A028-47D6-941E-941B1EBE2761}">
+  <dimension ref="B3:B23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>107</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
